--- a/RNN_python/output_data_test/anom_data11.xlsx
+++ b/RNN_python/output_data_test/anom_data11.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43094</v>
       </c>
       <c r="D2" t="n">
-        <v>12.56842333862535</v>
+        <v>31.62036608574485</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43094.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>15.7875665850203</v>
+        <v>15.70251061713687</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43094.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>22.62052829121008</v>
+        <v>12.03733734799982</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43094.125</v>
       </c>
       <c r="D5" t="n">
-        <v>25.77087890132266</v>
+        <v>1.093774204274482</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43094.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>26.09456065582013</v>
+        <v>41.89012534875776</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43094.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>22.67765656760599</v>
+        <v>65.7319501102124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43094.25</v>
       </c>
       <c r="D8" t="n">
-        <v>17.83213079907711</v>
+        <v>98.84177753341385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43094.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>41.05174902291414</v>
+        <v>128.1209924739644</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43094.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>354.3909407701609</v>
+        <v>252.9591159638073</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43094.375</v>
       </c>
       <c r="D11" t="n">
-        <v>367.6155484589996</v>
+        <v>423.333232879432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43094.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>381.8555479871253</v>
+        <v>400.5502137890693</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43094.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>306.0538503301657</v>
+        <v>350.0386637625304</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43094.5</v>
       </c>
       <c r="D14" t="n">
-        <v>257.5774478183192</v>
+        <v>294.2898961575225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43094.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>227.4363948189651</v>
+        <v>247.1166963641179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43094.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>190.6316783934711</v>
+        <v>200.2054774786203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43094.625</v>
       </c>
       <c r="D17" t="n">
-        <v>150.7264430608045</v>
+        <v>155.5353762291098</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43094.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>111.7827630021691</v>
+        <v>116.4947313901026</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43094.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>76.77194661709459</v>
+        <v>84.60269508722632</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43094.75</v>
       </c>
       <c r="D20" t="n">
-        <v>47.53242674524776</v>
+        <v>59.97610141490449</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43094.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>25.13271652382015</v>
+        <v>41.6471725650068</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43094.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>9.953592124895579</v>
+        <v>27.91913116758113</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43094.875</v>
       </c>
       <c r="D23" t="n">
-        <v>1.472967634776126</v>
+        <v>16.63601838533314</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43094.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>-1.821494533439946</v>
+        <v>6.518881270293392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43094.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.76978366657039</v>
+        <v>0.6993377827619014</v>
       </c>
     </row>
   </sheetData>
@@ -709,11 +709,11 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Thu</t>
+          <t>Mon</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43146</v>
+        <v>43094</v>
       </c>
       <c r="D2" t="n">
         <v>13</v>
@@ -723,230 +723,230 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43146.04166666666</v>
+        <v>43094.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43146.08333333334</v>
+        <v>43094.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43146.125</v>
+        <v>43094.125</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43146.16666666666</v>
+        <v>43094.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43146.20833333334</v>
+        <v>43094.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43146.25</v>
+        <v>43094.25</v>
       </c>
       <c r="D8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43146.29166666666</v>
+        <v>43094.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43146.33333333334</v>
+        <v>43094.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>453</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43146.375</v>
+        <v>43094.375</v>
       </c>
       <c r="D11" t="n">
-        <v>415</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43146.41666666666</v>
+        <v>43094.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>381</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43146.45833333334</v>
+        <v>43094.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>283</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43146.5</v>
+        <v>43094.5</v>
       </c>
       <c r="D14" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43146.54166666666</v>
+        <v>43094.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>255</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43146.58333333334</v>
+        <v>43094.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>179</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43146.625</v>
+        <v>43094.625</v>
       </c>
       <c r="D17" t="n">
-        <v>295</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43146.66666666666</v>
+        <v>43094.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>297</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43146.70833333334</v>
+        <v>43094.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>151</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43146.75</v>
+        <v>43094.75</v>
       </c>
       <c r="D20" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43146.79166666666</v>
+        <v>43094.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43146.83333333334</v>
+        <v>43094.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43146.875</v>
+        <v>43094.875</v>
       </c>
       <c r="D23" t="n">
-        <v>34</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43146.91666666666</v>
+        <v>43094.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43146.95833333334</v>
+        <v>43094.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/RNN_python/output_data_test/anom_data11.xlsx
+++ b/RNN_python/output_data_test/anom_data11.xlsx
@@ -420,244 +420,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43094</v>
+        <v>43139</v>
       </c>
       <c r="D2" t="n">
-        <v>31.62036608574485</v>
+        <v>12.48303431415799</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43094.04166666666</v>
+        <v>43139.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>15.70251061713687</v>
+        <v>7.540977120270284</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43094.08333333334</v>
+        <v>43139.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>12.03733734799982</v>
+        <v>12.11776508300704</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43094.125</v>
+        <v>43139.125</v>
       </c>
       <c r="D5" t="n">
-        <v>1.093774204274482</v>
+        <v>20.37929047493634</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43094.16666666666</v>
+        <v>43139.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>41.89012534875776</v>
+        <v>31.97148649004096</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43094.20833333334</v>
+        <v>43139.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>65.7319501102124</v>
+        <v>46.69065444490447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43094.25</v>
+        <v>43139.25</v>
       </c>
       <c r="D8" t="n">
-        <v>98.84177753341385</v>
+        <v>63.02061167488224</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43094.29166666666</v>
+        <v>43139.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>128.1209924739644</v>
+        <v>79.17942491998662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43094.33333333334</v>
+        <v>43139.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>252.9591159638073</v>
+        <v>108.6582077662471</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43094.375</v>
+        <v>43139.375</v>
       </c>
       <c r="D11" t="n">
-        <v>423.333232879432</v>
+        <v>169.8603246901675</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43094.41666666666</v>
+        <v>43139.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>400.5502137890693</v>
+        <v>451.1009334609973</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43094.45833333334</v>
+        <v>43139.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>350.0386637625304</v>
+        <v>415.3667176731161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43094.5</v>
+        <v>43139.5</v>
       </c>
       <c r="D14" t="n">
-        <v>294.2898961575225</v>
+        <v>375.41557825502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43094.54166666666</v>
+        <v>43139.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>247.1166963641179</v>
+        <v>294.6085845478468</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43094.58333333334</v>
+        <v>43139.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>200.2054774786203</v>
+        <v>255.2025546355322</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43094.625</v>
+        <v>43139.625</v>
       </c>
       <c r="D17" t="n">
-        <v>155.5353762291098</v>
+        <v>234.3072917197351</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43094.66666666666</v>
+        <v>43139.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>116.4947313901026</v>
+        <v>218.1356011156869</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43094.70833333334</v>
+        <v>43139.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>84.60269508722632</v>
+        <v>201.5094729837856</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43094.75</v>
+        <v>43139.75</v>
       </c>
       <c r="D20" t="n">
-        <v>59.97610141490449</v>
+        <v>181.6307570532616</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43094.79166666666</v>
+        <v>43139.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>41.6471725650068</v>
+        <v>155.7250528629318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43094.83333333334</v>
+        <v>43139.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>27.91913116758113</v>
+        <v>122.6802106282415</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43094.875</v>
+        <v>43139.875</v>
       </c>
       <c r="D23" t="n">
-        <v>16.63601838533314</v>
+        <v>86.71296810769823</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43094.91666666666</v>
+        <v>43139.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>6.518881270293392</v>
+        <v>56.6643255803655</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43094.95833333334</v>
+        <v>43139.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.6993377827619014</v>
+        <v>1.46297229797996</v>
       </c>
     </row>
   </sheetData>
@@ -709,244 +709,244 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>Mon</t>
+          <t>Thu</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
-        <v>43094</v>
+        <v>43139</v>
       </c>
       <c r="D2" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="1" t="n"/>
       <c r="C3" s="2" t="n">
-        <v>43094.04166666666</v>
+        <v>43139.04166666666</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n"/>
       <c r="B4" s="1" t="n"/>
       <c r="C4" s="2" t="n">
-        <v>43094.08333333334</v>
+        <v>43139.08333333334</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
       <c r="C5" s="2" t="n">
-        <v>43094.125</v>
+        <v>43139.125</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
       <c r="C6" s="2" t="n">
-        <v>43094.16666666666</v>
+        <v>43139.16666666666</v>
       </c>
       <c r="D6" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
       <c r="C7" s="2" t="n">
-        <v>43094.20833333334</v>
+        <v>43139.20833333334</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
       <c r="C8" s="2" t="n">
-        <v>43094.25</v>
+        <v>43139.25</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
       <c r="C9" s="2" t="n">
-        <v>43094.29166666666</v>
+        <v>43139.29166666666</v>
       </c>
       <c r="D9" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
       <c r="C10" s="2" t="n">
-        <v>43094.33333333334</v>
+        <v>43139.33333333334</v>
       </c>
       <c r="D10" t="n">
-        <v>428</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
       <c r="C11" s="2" t="n">
-        <v>43094.375</v>
+        <v>43139.375</v>
       </c>
       <c r="D11" t="n">
-        <v>337</v>
+        <v>385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
       <c r="C12" s="2" t="n">
-        <v>43094.41666666666</v>
+        <v>43139.41666666666</v>
       </c>
       <c r="D12" t="n">
-        <v>314</v>
+        <v>395</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
       <c r="C13" s="2" t="n">
-        <v>43094.45833333334</v>
+        <v>43139.45833333334</v>
       </c>
       <c r="D13" t="n">
-        <v>238</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
       <c r="C14" s="2" t="n">
-        <v>43094.5</v>
+        <v>43139.5</v>
       </c>
       <c r="D14" t="n">
-        <v>243</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
       <c r="C15" s="2" t="n">
-        <v>43094.54166666666</v>
+        <v>43139.54166666666</v>
       </c>
       <c r="D15" t="n">
-        <v>202</v>
+        <v>222</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
       <c r="C16" s="2" t="n">
-        <v>43094.58333333334</v>
+        <v>43139.58333333334</v>
       </c>
       <c r="D16" t="n">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
       <c r="C17" s="2" t="n">
-        <v>43094.625</v>
+        <v>43139.625</v>
       </c>
       <c r="D17" t="n">
-        <v>124</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
       <c r="C18" s="2" t="n">
-        <v>43094.66666666666</v>
+        <v>43139.66666666666</v>
       </c>
       <c r="D18" t="n">
-        <v>121</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
       <c r="C19" s="2" t="n">
-        <v>43094.70833333334</v>
+        <v>43139.70833333334</v>
       </c>
       <c r="D19" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
       <c r="C20" s="2" t="n">
-        <v>43094.75</v>
+        <v>43139.75</v>
       </c>
       <c r="D20" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
       <c r="C21" s="2" t="n">
-        <v>43094.79166666666</v>
+        <v>43139.79166666666</v>
       </c>
       <c r="D21" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
       <c r="C22" s="2" t="n">
-        <v>43094.83333333334</v>
+        <v>43139.83333333334</v>
       </c>
       <c r="D22" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
       <c r="C23" s="2" t="n">
-        <v>43094.875</v>
+        <v>43139.875</v>
       </c>
       <c r="D23" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="n"/>
       <c r="C24" s="2" t="n">
-        <v>43094.91666666666</v>
+        <v>43139.91666666666</v>
       </c>
       <c r="D24" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="1" t="n"/>
       <c r="C25" s="2" t="n">
-        <v>43094.95833333334</v>
+        <v>43139.95833333334</v>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
